--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'행간' = 行間?</t>
+          <t>'공동(common)' = 公同?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>'서약(vow)' = 序約?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ㅇ</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>20221212</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>17</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,30 +463,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'공동(common)' = 公同?</t>
+          <t>'실화(truth)' = 實話?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>ㅇ</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ㄴ</t>
-        </is>
-      </c>
       <c r="D2" t="n">
-        <v>20221212</v>
+        <v>20221213</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 序約?</t>
+          <t>'화제(topic)' = 和題?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,14 +499,60 @@
           <t>ㄴ</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20221212</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18</t>
+      <c r="D3" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>'유교(conf)' = 儒敎?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>'간만(full)' = 看滿?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20221213</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 統貨?</t>
+          <t>'통화(calling)' = 統話?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,17 +486,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'정파' = 政派?</t>
+          <t>'유감(pity)' = 有憾?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>ㄴ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ㅇ</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'간발(interim)' = 干髮?</t>
+          <t>'세력(power)' = 稅力?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>'간여' = 間與?</t>
+          <t>'동화' = 同話?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 統話?</t>
+          <t>'간섭' = 間涉?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,17 +578,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 構造?</t>
+          <t>'단서(ductive)' = 斷緖?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>ㄴ</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ㅇ</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -601,17 +601,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'간섭' = 干涉?</t>
+          <t>'화합(harmony)' = 話合?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>ㄴ</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ㅇ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,14 +614,287 @@
           <t>ㄴ</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20221218</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17</t>
+      <c r="D8" t="n">
+        <v>20221218</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>'비견(shoulder)' = 悲肩?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>'서언(oath)' = 序言?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>'유교(conf)' = 遺敎?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>'정파' = 正派?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>'구조(structure)' = 具造?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>'근절(eradication)' = 根絶?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>'단서(ductive)' = 斷緖?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>00시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>'간여' = 間與?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>00시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>'방역' = 放疫?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>00시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>'화두(words)' = 和頭?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>00시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>'동화' = 同話?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20221220</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>00시 11분</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,14 +887,1414 @@
           <t>ㄴ</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20221220</t>
-        </is>
+      <c r="D19" t="n">
+        <v>20221220</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>00시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>'회유(tenderness)' = 懷柔?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>'유산(heritage)' = 誘産?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>'공유(share)' = 公有?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>'소원(wish)' = 所願?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>'화목(harmony)' = 貨睦?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>'위기(crisis)' = 萎機?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>'유감(pity)' = 遊憾?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>'경로(passage)' = 經路?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>'사회(society)' = 事會?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>'유산(heritage)' = 誘産?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>'위기(crisis)' = 萎機?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>'근성(guts)' = 根性?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>'성실(honest)' = 成實?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>'수색(search)' = 受索?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>'구분(distinguish)' = 救分?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>'서약(vow)' = 序約?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>'자태(attitude)' = 仔態?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>'강의(lecture)' = 講義?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>'의무(obligation)' = 議務?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>'비견(shoulder)' = 悲肩?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>'공리(axiom)' = 共理?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>'자존' = 姿存?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>'정권' = 正權?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 會抱?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 會抱?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>'여과(filtration)' = 與過?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>'교양(cure)' = 矯養?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>'통화(calling)' = 統話?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>'자손(descendants)' = 姿孫?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>'구조(structure)' = 具造?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>'간섭' = 間涉?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>'세무(tax)' = 勢務?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>'고민(depressed)' = 孤悶?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>'자세(carefulness)' = 姿細?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>'간호(nurse)' = 間護?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>'화해(reconciliation)' = 貨解?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>'유리(favorable)' = 遊利?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>'노쇠(aging)' = 路衰?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>'정부' = 正否?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>'부상(injury)' = 否傷?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>'경위' = 更緯?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>'부상(injury)' = 浮傷?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>'소원(wish)' = 訴願?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>'구조(rescue)' = 構助?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>'통제(control)' = 通制?</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>'자손(descendants)' = 仔孫?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>'자세(carefulness)' = 子細?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>'공리(axiom)' = 公理?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>'기회(chance)' = 基會?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>'사건(event)' = 思件?</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>'비탄(grief)' = 比嘆?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>'공유(public)' = 共有?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>'부정(indefinite)' = 否定?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>'경제(economy)' = 經濟?</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>'교정(correct)' = 敎正?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>'소원' = 訴願?</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>20221227</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2287,14 +2287,489 @@
           <t>ㅇ</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>20221227</t>
-        </is>
+      <c r="D75" t="n">
+        <v>20221227</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>'경망(gorgeous)' = 更妄?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>09시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>'경망(gorgeous)' = 經妄?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>'자의(unreasonable)' = 姿意?</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>09시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>'동맹(alliance)' = 童盟?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>09시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>'부결(veto)' = 負決?</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>09시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>'통화(currency)' = 統貨?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>09시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>'회피(avoidance)' = 會避?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>09시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>'기관(organ)' = 基關?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 會抱?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>'부상(injury)' = 負傷?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>'회의(meeting)' = 懷議?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>'회의(suspect)' = 會疑?</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>09시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>'유리(favorable)' = 遺利?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>10시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>'부상(emerging)' = 負上?</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>'망언(deliberate)' = 亡言?</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>'수렴(convergence)' = 受斂?</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>'자존(self -existence)' = 仔存?</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>'의향(intention)' = 議向?</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>'의중(intention)' = 義中?</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>20230107</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2762,14 +2762,514 @@
           <t>ㄴ</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>20230107</t>
-        </is>
+      <c r="D94" t="n">
+        <v>20230107</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>'자의(unreasonable)' = 姿意?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>'자존(self -existence)' = 仔存?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>'의향(intention)' = 議向?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>'통화(currency)' = 統貨?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 會抱?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>'망언(deliberate)' = 亡言?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 會抱?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 回抱?</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>'변명(discern)' = 變明?</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>'연합(union)' = 演合?</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>07시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>'교양(cure)' = 敎養?</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>07시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>'고독(lonely)' = 考獨?</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>'유세(seduce)' = 遺說?</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>'간섭' = 間涉?</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>'교정(revision)' = 敎訂?</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>'서막(prelude)' = 誓幕?</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>'거절(rejection)' = 拒絶?</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>'소원' = 訴願?</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>'망조(omen)' = 妄兆?</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>'동화(fairy tale)' = 同話?</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>20230110</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/오답노트/오답노트_무한반복_O_X_퀴즈_국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3262,14 +3262,89 @@
           <t>ㄴ</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>20230110</t>
-        </is>
+      <c r="D114" t="n">
+        <v>20230110</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 回抱?</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>'서막(prelude)' = 誓幕?</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>'변명(discern)' = 變明?</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>20230114</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
         </is>
       </c>
     </row>
